--- a/marsframework-master/MarsFramework/TestData/LogInData.xlsx
+++ b/marsframework-master/MarsFramework/TestData/LogInData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\marsframework-master\marsframework-master\MarsFramework\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\marsframework-master\marsframework-master\MarsFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF36A3B1-64B4-4425-9577-5C91A60601D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10993AB1-5F30-4C36-914B-C1D10D046ABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2100" windowWidth="18720" windowHeight="8100" activeTab="1" xr2:uid="{AC3CBE72-DA97-4E18-B194-62C30268D00D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AC3CBE72-DA97-4E18-B194-62C30268D00D}"/>
   </bookViews>
   <sheets>
     <sheet name="SignInPage" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,10 +621,10 @@
         <v>24</v>
       </c>
       <c r="H2" s="4">
-        <v>44163</v>
+        <v>44252</v>
       </c>
       <c r="I2" s="4">
-        <v>44194</v>
+        <v>44339</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
